--- a/Coorelation.xlsx
+++ b/Coorelation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosjosegonzalezacevedo/Documents/GitHub/DCF---Portfolio-Acquisition-Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A263CE-CC67-AD48-AF3C-24D9420F4C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD1928-31B1-894A-B9B8-5D2EB78594E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C51A3FFC-2027-EE4F-92B1-1672FE95579E}"/>
   </bookViews>
@@ -36,7 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>3Q21</t>
+  </si>
+  <si>
+    <t>4Q21</t>
+  </si>
+  <si>
+    <t>1Q22</t>
+  </si>
+  <si>
+    <t>2Q22</t>
+  </si>
+  <si>
+    <t>3Q22</t>
+  </si>
+  <si>
+    <t>4Q22</t>
+  </si>
   <si>
     <t>PD</t>
   </si>
@@ -45,15 +63,6 @@
   </si>
   <si>
     <t>New Container Price</t>
-  </si>
-  <si>
-    <t>Replacement</t>
-  </si>
-  <si>
-    <t>Operating Ratio</t>
-  </si>
-  <si>
-    <t>World GDP</t>
   </si>
   <si>
     <t>Year</t>
@@ -63,19 +72,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,29 +99,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,33 +136,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 30 2" xfId="2" xr:uid="{24D2EF1D-45C4-734A-8DA0-80B6C00BECC6}"/>
-    <cellStyle name="Normal 34 2" xfId="4" xr:uid="{8D3A1DEA-C9B2-5044-A2B4-AE20AA96A8E1}"/>
-    <cellStyle name="Normal 8 13" xfId="3" xr:uid="{7317FAD2-AD4B-7349-9124-48979D09BBD6}"/>
+    <cellStyle name="Normal 30 2" xfId="1" xr:uid="{24D2EF1D-45C4-734A-8DA0-80B6C00BECC6}"/>
+    <cellStyle name="Normal 34 2" xfId="3" xr:uid="{8D3A1DEA-C9B2-5044-A2B4-AE20AA96A8E1}"/>
+    <cellStyle name="Normal 8 13" xfId="2" xr:uid="{7317FAD2-AD4B-7349-9124-48979D09BBD6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C6040-1704-9141-ADC1-90189080F10E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -498,156 +483,147 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2160</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1910</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2206</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2260</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2252</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="B8" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2253</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1765</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1050</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1650</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.7501145119811727</v>
-      </c>
-      <c r="G2" s="9">
-        <v>87.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1323.75</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2246.25</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.47492243589743527</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.7653032070141095</v>
-      </c>
-      <c r="G3" s="4">
-        <v>85.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1.04</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2161.5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3691.25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.9132841171573509</v>
-      </c>
-      <c r="G4" s="4">
-        <v>96.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1909.5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2663.25</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.8784253881806783</v>
-      </c>
-      <c r="G5" s="5">
-        <v>100.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1526.4220110000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2191</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.3540000000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.787252254173205</v>
-      </c>
-      <c r="G6" s="9">
-        <v>103.57680000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" s="2"/>
+      <c r="B10" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1368</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2058</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
